--- a/CREST syndrome_vs_Esophageal stricture.xlsx
+++ b/CREST syndrome_vs_Esophageal stricture.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History of Present Illness (the" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medical and Surgical History, i" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Social History, Health Behavior" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vitals and Physical Exam" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results (labs, imaging, pr" sheetId="5" state="visible" r:id="rId5"/>
@@ -467,17 +467,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are characteristic of CREST syndrome and suggest systemic involvement, which is not typical in esophageal stricture.</t>
+          <t>These skin manifestations are characteristic of CREST syndrome and are not associated with esophageal stricture.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Acute onset of severe dysphagia</t>
+          <t>Recent onset of severe dysphagia with solid foods</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acute dysphagia is more indicative of an esophageal stricture, which can develop rapidly due to various causes, unlike the gradual onset seen in CREST syndrome.</t>
+          <t>Severe dysphagia, particularly with solids, is a hallmark of esophageal stricture, while in CREST syndrome, dysphagia is often less severe initially.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common symptom associated with CREST syndrome, indicating vascular involvement, which is not a feature of esophageal stricture.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating vascular involvement, which is not typical in esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -499,51 +499,51 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERD is a common precursor to esophageal strictures, making it a strong indicator for this diagnosis compared to CREST syndrome.</t>
+          <t>GERD can lead to esophageal stricture due to chronic inflammation and scarring, which is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Progressive dysphagia over months with associated weight loss</t>
+          <t>Gastrointestinal symptoms such as dysphagia occurring alongside other systemic symptoms</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While dysphagia can occur in both conditions, the gradual onset with significant weight loss may suggest a systemic condition like CREST syndrome rather than a localized esophageal stricture.</t>
+          <t>In CREST syndrome, dysphagia is often accompanied by other systemic symptoms, whereas esophageal stricture typically presents with isolated swallowing difficulties.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent history of foreign body ingestion or caustic substance exposure</t>
+          <t>Intermittent episodes of food getting stuck in the throat</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>These events can lead to esophageal strictures, providing a clear cause that is not associated with CREST syndrome.</t>
+          <t>This symptom is more indicative of esophageal stricture, where narrowing of the esophagus causes obstruction, unlike the more systemic nature of dysphagia in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms such as reflux or constipation</t>
+          <t>Progressive symptoms over months to years</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>These symptoms can indicate esophageal motility issues associated with CREST syndrome, which are less common in isolated esophageal stricture.</t>
+          <t>CREST syndrome typically has a gradual onset and progression, while esophageal stricture may present more acutely.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Localized chest pain or discomfort during swallowing</t>
+          <t>History of weight loss due to difficulty eating</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Localized symptoms during swallowing are more characteristic of esophageal stricture, while CREST syndrome typically presents with systemic symptoms.</t>
+          <t>Significant weight loss due to eating difficulties is more commonly associated with esophageal stricture than with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -555,17 +555,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>These complications are associated with CREST syndrome and suggest a systemic process, unlike esophageal stricture, which is primarily localized.</t>
+          <t>These pulmonary complications are associated with CREST syndrome and are not features of esophageal stricture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of radiation therapy to the chest</t>
+          <t>No associated systemic symptoms such as skin changes or Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Radiation therapy can lead to esophageal strictures, providing a specific history that would not be relevant to CREST syndrome.</t>
+          <t>The absence of systemic symptoms that are characteristic of CREST syndrome supports a diagnosis of esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -580,14 +580,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>History of Raynaud's phenomenon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome, indicating vascular involvement that is not typically associated with esophageal stricture.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>History of gastroesophageal reflux disease (GERD)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GERD can lead to esophageal stricture due to chronic inflammation and scarring, which is not a feature of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Presence of skin changes (e.g., sclerodactyly)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Skin changes such as sclerodactyly are characteristic of CREST syndrome and are not seen in esophageal stricture.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Previous esophageal surgeries (e.g., dilation)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A history of surgical interventions for esophageal strictures indicates a structural problem, which is not associated with CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>History of pulmonary hypertension</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, whereas it is not a feature of esophageal stricture.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Use of medications for esophageal motility disorders (e.g., proton pump inhibitors)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Medications aimed at treating esophageal motility disorders suggest a diagnosis of esophageal stricture rather than CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Use of immunosuppressive medications</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patients with CREST syndrome may be treated with immunosuppressive medications for autoimmune symptoms, which is less common in esophageal stricture management.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>History of radiation therapy to the chest</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Radiation therapy can lead to esophageal strictures due to fibrosis, which is not a feature of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gastrointestinal symptoms (e.g., dysmotility)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gastrointestinal dysmotility is a common manifestation of CREST syndrome, while esophageal stricture typically presents with obstructive symptoms.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Presence of dysphagia (difficulty swallowing)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dysphagia is a direct symptom of esophageal stricture, while it is less specific in the context of CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -668,7 +801,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smoking is a known risk factor for esophageal strictures due to its effects on esophageal mucosa and motility, while it is not a risk factor for CREST syndrome.</t>
+          <t>Smoking is a known risk factor for esophageal strictures due to its effects on esophageal mucosa, while it is not a risk factor for CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -707,19 +840,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Family history of esophageal cancer or strictures</t>
+          <t>Family history of esophageal cancer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A family history of esophageal cancer or strictures may indicate a genetic predisposition to esophageal strictures, which is not a feature of CREST syndrome.</t>
+          <t>A family history of esophageal cancer may indicate a predisposition to esophageal strictures, while CREST syndrome does not have a similar familial link.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Presence of pulmonary hypertension</t>
+          <t>History of pulmonary hypertension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -734,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Previous esophageal surgeries can lead to strictures, making this finding more indicative of esophageal stricture than CREST syndrome.</t>
+          <t>Previous esophageal surgeries can lead to strictures, which is a direct association with esophageal stricture and not with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -797,19 +930,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GERD is a common risk factor for esophageal stricture, while it is not associated with CREST syndrome.</t>
+          <t>GERD is a common risk factor for esophageal stricture, while it is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Pulmonary hypertension</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly seen in CREST syndrome and is not a feature of esophageal stricture.</t>
+          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, whereas it is not a feature of esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -819,73 +952,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Weight loss is more indicative of esophageal stricture due to obstructive symptoms, whereas CREST syndrome may not present with significant weight loss.</t>
+          <t>Weight loss is more indicative of esophageal stricture due to obstructive symptoms compared to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome due to vascular changes, while it is not a feature of esophageal stricture.</t>
+          <t>Raynaud's phenomenon is commonly seen in CREST syndrome and is not typically associated with esophageal stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chest pain related to swallowing</t>
+          <t>Signs of dehydration or malnutrition</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chest pain during swallowing is more characteristic of esophageal stricture, while CREST syndrome typically does not present this way.</t>
+          <t>Dehydration or malnutrition can result from esophageal stricture due to impaired intake, which is less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dysphagia with skin and vascular symptoms</t>
+          <t>Dysphagia with esophageal motility abnormalities</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysphagia in CREST syndrome is often accompanied by skin and vascular symptoms, unlike esophageal stricture which primarily presents with dysphagia.</t>
+          <t>While dysphagia can occur in both conditions, esophageal motility abnormalities are more characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stridor or wheezing due to esophageal compression</t>
+          <t>Stridor or wheezing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stridor or wheezing can occur if an esophageal stricture compresses the airway, which is not a feature of CREST syndrome.</t>
+          <t>Stridor or wheezing may indicate airway compression due to esophageal stricture, which is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Telangiectasia</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Telangiectasia is a common finding in CREST syndrome and is not present in esophageal stricture.</t>
+          <t>Digital ulcers are associated with CREST syndrome due to vascular involvement, unlike esophageal stricture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Signs of malnutrition</t>
+          <t>Tachycardia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Malnutrition can result from esophageal stricture due to impaired intake, while it is less common in CREST syndrome.</t>
+          <t>Tachycardia may occur in response to pain or distress from esophageal stricture, while it is less specific for CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -943,12 +1076,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Endoscopic findings of a narrowed esophagus</t>
+          <t>Endoscopic findings of esophageal narrowing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Direct visualization of a narrowed esophagus during endoscopy is a hallmark of esophageal stricture and is not a feature of CREST syndrome.</t>
+          <t>Direct visualization of esophageal narrowing during endoscopy is a definitive indicator of esophageal stricture, which is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -965,12 +1098,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Barium swallow showing a specific stricture</t>
+          <t>Histological evidence of fibrosis in biopsy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A barium swallow that demonstrates a specific stricture is indicative of esophageal stricture, while CREST syndrome would show motility issues rather than a focal narrowing.</t>
+          <t>Fibrosis observed in biopsy samples is characteristic of esophageal stricture and is not associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -987,12 +1120,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Histological evidence of fibrosis in biopsy</t>
+          <t>Barium swallow showing a fixed obstruction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fibrosis observed in biopsy samples is characteristic of esophageal stricture, particularly in cases related to chronic injury, and is not a feature of CREST syndrome.</t>
+          <t>A fixed obstruction on barium swallow imaging is indicative of esophageal stricture, while CREST syndrome typically presents with motility issues rather than strictures.</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1142,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal motility findings on esophageal manometry would support a diagnosis of esophageal stricture, as CREST syndrome typically presents with motility abnormalities.</t>
+          <t>Normal findings on esophageal manometry would support esophageal stricture, as CREST syndrome usually shows motility abnormalities.</t>
         </is>
       </c>
     </row>
@@ -1026,17 +1159,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is a common complication of CREST syndrome, which would not be present in esophageal stricture.</t>
+          <t>Interstitial lung disease is a common complication of CREST syndrome, while esophageal stricture does not typically affect lung function.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Elevated eosinophils in esophageal biopsy</t>
+          <t>Presence of gastroesophageal reflux disease (GERD) symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Elevated eosinophils can indicate eosinophilic esophagitis, which can cause strictures, and is not associated with CREST syndrome.</t>
+          <t>Symptoms of GERD can be associated with esophageal stricture due to reflux-related damage, whereas they are not a direct feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
